--- a/import/raw_data/id_subsector.xlsx
+++ b/import/raw_data/id_subsector.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fraunhofer.sharepoint.com/sites/MICAT/Freigegebene Dokumente/WP4 - Tool development and validation/MICATool/Database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_2230835E7D9F12E161FBD301ED00F9A27136DC0A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE7E155-7BFC-44D1-9594-9888E21DBF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="30912" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -124,13 +135,64 @@
   </si>
   <si>
     <t>Not elsewhere specified in transport</t>
+  </si>
+  <si>
+    <t>Solar PV</t>
+  </si>
+  <si>
+    <t>Solar Photovoltaics</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Wind power</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
+    <t>Hydro power</t>
+  </si>
+  <si>
+    <t>Geothermal &amp; other RES  (e.g., tidal)</t>
+  </si>
+  <si>
+    <t>Geothermal heat, other renewables (e.g., tidal)</t>
+  </si>
+  <si>
+    <t>Biomass &amp; waste</t>
+  </si>
+  <si>
+    <t>Hydrogen power plant</t>
+  </si>
+  <si>
+    <t>Heat pump</t>
+  </si>
+  <si>
+    <t>Heat pump for district heating</t>
+  </si>
+  <si>
+    <t>Solar thermal</t>
+  </si>
+  <si>
+    <t>Solar thermal energy for district heating</t>
+  </si>
+  <si>
+    <t>Waste heat</t>
+  </si>
+  <si>
+    <t>Waste heat for district heating</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,20 +512,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,8 +535,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -484,8 +549,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -495,8 +563,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -506,8 +577,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -517,8 +591,11 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -528,8 +605,11 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -539,8 +619,11 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -550,8 +633,11 @@
       <c r="C8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -561,8 +647,11 @@
       <c r="C9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -572,8 +661,11 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -583,8 +675,11 @@
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -594,8 +689,11 @@
       <c r="C12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -605,8 +703,11 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -616,8 +717,11 @@
       <c r="C14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -627,8 +731,11 @@
       <c r="C15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -638,8 +745,11 @@
       <c r="C16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -649,8 +759,11 @@
       <c r="C17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -660,8 +773,11 @@
       <c r="C18" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -671,8 +787,11 @@
       <c r="C19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -682,8 +801,11 @@
       <c r="C20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -693,8 +815,11 @@
       <c r="C21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -704,8 +829,11 @@
       <c r="C22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -715,8 +843,11 @@
       <c r="C23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -726,8 +857,11 @@
       <c r="C24" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -736,6 +870,135 @@
       </c>
       <c r="C25" t="s">
         <v>32</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>30</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>31</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>33</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>36</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -744,18 +1007,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Type xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">id_table</Type>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010081027A5C4AB68A40A5017F28CDCC410C" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="f1f428d4bdb6f67b400b210b48125618">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca47701c-f272-4f81-9665-1c7dbebc0776" xmlns:ns3="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8189f6f0f7c839d9d0d3622fd62ec189" ns2:_="" ns3:_="">
     <xsd:import namespace="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
@@ -1008,6 +1259,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Type xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">id_table</Type>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1018,13 +1281,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EBE74F8-05B3-4CA5-9EAF-1B67B5F69D94}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B372EC72-6F8A-4FEE-A66E-5E6CF43ECAFB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
+    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B372EC72-6F8A-4FEE-A66E-5E6CF43ECAFB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EBE74F8-05B3-4CA5-9EAF-1B67B5F69D94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
+    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0607FA7B-DA1B-4874-852C-BE1CE71BF34F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0607FA7B-DA1B-4874-852C-BE1CE71BF34F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/import/raw_data/id_subsector.xlsx
+++ b/import/raw_data/id_subsector.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bef\GitHub\micat\import\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE7E155-7BFC-44D1-9594-9888E21DBF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1C5C48-ED79-4703-92E2-B34EE4CA802E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="30912" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4152" yWindow="4152" windowWidth="46080" windowHeight="12060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -126,12 +126,6 @@
   </si>
   <si>
     <t>Domestic navigation</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>Pipeline transport</t>
   </si>
   <si>
     <t>Not elsewhere specified in transport</t>
@@ -512,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -849,13 +843,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -863,21 +857,21 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
@@ -891,7 +885,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
         <v>35</v>
@@ -905,7 +899,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -919,13 +913,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -933,13 +927,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -947,10 +941,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
@@ -961,7 +955,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
@@ -975,7 +969,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
         <v>45</v>
@@ -984,20 +978,6 @@
         <v>46</v>
       </c>
       <c r="D33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>38</v>
-      </c>
-      <c r="B34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34">
         <v>1</v>
       </c>
     </row>
@@ -1007,6 +987,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Type xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">id_table</Type>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010081027A5C4AB68A40A5017F28CDCC410C" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="f1f428d4bdb6f67b400b210b48125618">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ca47701c-f272-4f81-9665-1c7dbebc0776" xmlns:ns3="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8189f6f0f7c839d9d0d3622fd62ec189" ns2:_="" ns3:_="">
     <xsd:import namespace="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
@@ -1259,28 +1260,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="89bcd336-abeb-4a08-b6b9-8f1906e00f8a" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Type xmlns="ca47701c-f272-4f81-9665-1c7dbebc0776">id_table</Type>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0607FA7B-DA1B-4874-852C-BE1CE71BF34F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EBE74F8-05B3-4CA5-9EAF-1B67B5F69D94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
+    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B372EC72-6F8A-4FEE-A66E-5E6CF43ECAFB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1297,23 +1296,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EBE74F8-05B3-4CA5-9EAF-1B67B5F69D94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="89bcd336-abeb-4a08-b6b9-8f1906e00f8a"/>
-    <ds:schemaRef ds:uri="ca47701c-f272-4f81-9665-1c7dbebc0776"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0607FA7B-DA1B-4874-852C-BE1CE71BF34F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>